--- a/JavaEE/Jee_SSH相关/jee.xlsx
+++ b/JavaEE/Jee_SSH相关/jee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24030" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>介绍</t>
   </si>
@@ -9542,6 +9542,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>过滤器</t>
     </r>
     <r>
@@ -18031,12 +18037,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>ResultSet</t>
     </r>
     <r>
@@ -22114,12 +22114,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>JDBC</t>
     </r>
     <r>
@@ -25670,305 +25664,122 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据库连接池：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-    javaEE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中设置数据库连接池的步骤为：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-    1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Tomcat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器的配置文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>context.xml</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中配置连接池属性，如最大连接数目、最大空闲连接数、数据库用户名和密码，标签为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;Resource&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-    2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、在项目的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>web.xml</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件中声明要查找数据源的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>JNDI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，标签为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;resource-ref&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-    3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类中用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>InitialContext</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对象的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>lookup()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法装载资源名称获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DataSource</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DataSource</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>调用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>getConnection()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Connection</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对象</t>
+      <t>// Statement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建时不需要参数，执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>executeQuery()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时才传入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Statement statement = conn.createStatement();
+ResultSet result = statement.executeQuery(sql); 
+// PreparedStatement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在创建时即传入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后设置参数值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+PreparedStatement psmt = conn.prepareStatement(sql);  
+psmt.setString(1, source);
+psmt.setInt(2, offset);
+ResultSet result = psmt.executeQuery(); </t>
     </r>
   </si>
   <si>
@@ -26319,222 +26130,299 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>分页：分页是指将数据库中行数很多的数据逐页显示，并实现前后翻页的功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分页的技术有多种，常见的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>种为：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>数据库连接池：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    javaEE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中设置数据库连接池的步骤为：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tomcat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器的配置文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>context.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中配置连接池属性，如最大连接数目、最大空闲连接数、数据库用户名和密码，标签为</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>游标定位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：先查询到所有的记录，然后使用游标定位到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ResultSet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中本页对应的起始记录，读取并返回本页的数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>优点：使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>JDBC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>功能，适用所有的数据库</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺点：使用游标，读取数据时需要与数据库多次交互，速度较慢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;Resource&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、在项目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>web.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件中声明要查找数据源的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JNDI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，标签为</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用数据库专有的分页语句</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-    MySQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的分页语句为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Limit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，只返回特定记录的数据，效率最高，缺点为各个数据库的分页语句不同，不可移植</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;resource-ref&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类中用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>InitialContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lookup()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法装载资源名称获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DataSource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DataSource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>getConnection()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Connection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象</t>
     </r>
   </si>
   <si>
@@ -26880,6 +26768,290 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t>分页：分页是指将数据库中行数很多的数据逐页显示，并实现前后翻页的功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分页的技术有多种，常见的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种为：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游标定位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：先查询到所有的记录，然后使用游标定位到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ResultSet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中本页对应的起始记录，读取并返回本页的数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优点：使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JDBC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>功能，适用所有的数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺点：使用游标，读取数据时需要与数据库多次交互，速度较慢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用数据库专有的分页语句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    MySQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的分页语句为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，只返回特定记录的数据，效率最高，缺点为各个数据库的分页语句不同，不可移植</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果需要重定向到另外一个URL,并且需要在浏览器禁止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时使用会话，则需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:
+  String targetURL = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>response.encodeRedirectURL("getSession");</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+  response.sendRedirect(targetURL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>二进制大对象：</t>
     </r>
     <r>
@@ -27206,64 +27378,6 @@
       </rPr>
       <t xml:space="preserve">.
     </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果需要重定向到另外一个URL,并且需要在浏览器禁止</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Cookie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时使用会话，则需要</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:
-  String targetURL = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>response.encodeRedirectURL("getSession");</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-  response.sendRedirect(targetURL);</t>
     </r>
   </si>
 </sst>
@@ -27272,10 +27386,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -27318,21 +27432,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -27348,34 +27447,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -27388,25 +27464,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -27427,6 +27487,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -27440,8 +27522,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -27456,7 +27563,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -27541,13 +27655,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27565,13 +27787,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27583,55 +27817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27643,85 +27835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27735,41 +27849,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27785,17 +27869,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27824,11 +27897,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27840,10 +27954,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -27852,133 +27966,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -28481,8 +28595,8 @@
   <sheetPr/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K5"/>
+    <sheetView tabSelected="1" topLeftCell="L9" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -28805,9 +28919,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" ht="127" customHeight="1" spans="4:4">
+    <row r="12" ht="127" customHeight="1" spans="4:13">
       <c r="D12" s="5" t="s">
         <v>92</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/JavaEE/Jee_SSH相关/jee.xlsx
+++ b/JavaEE/Jee_SSH相关/jee.xlsx
@@ -34,12 +34,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>JavaBeans</t>
     </r>
     <r>
@@ -96,12 +90,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>Web</t>
     </r>
     <r>
@@ -116,12 +104,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>Web</t>
     </r>
     <r>
@@ -145,12 +127,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>MVC</t>
     </r>
     <r>
@@ -165,12 +141,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">HTTP/1.1 200 OK </t>
     </r>
     <r>
@@ -298,12 +268,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>Servlet</t>
     </r>
     <r>
@@ -756,23 +720,53 @@
   </si>
   <si>
     <r>
+      <t>属性对象</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>属性对象/属性范围对象</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：
-属性是根据具体事务设置的，并没有固定的属性对象：</t>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属性范围对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属性是根据具体事务设置的，并没有固定的属性对象：</t>
     </r>
     <r>
       <rPr>
@@ -995,12 +989,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>HTTP</t>
     </r>
     <r>
@@ -1064,7 +1052,25 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>请求-响应</t>
+      <t>请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>响应</t>
     </r>
     <r>
       <rPr>
@@ -1478,12 +1484,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>JSP</t>
     </r>
     <r>
@@ -1935,12 +1935,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>本章内容的作用：避免在</t>
     </r>
     <r>
@@ -2082,12 +2076,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>JSTL</t>
     </r>
     <r>
@@ -2371,12 +2359,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>目录结构：</t>
     </r>
     <r>
@@ -2603,12 +2585,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>大多数应用程序都需要实现登录和访问控制，</t>
     </r>
     <r>
@@ -2731,12 +2707,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>过滤器是一种</t>
     </r>
     <r>
@@ -2923,12 +2893,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>Ajax</t>
     </r>
     <r>
@@ -3327,12 +3291,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>JDBC</t>
     </r>
     <r>
@@ -3630,12 +3588,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>向下兼容：后期</t>
     </r>
     <r>
@@ -3737,12 +3689,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>请求</t>
     </r>
     <r>
@@ -4205,12 +4151,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>属性是一种对象，可以通过调用上述对象的</t>
     </r>
     <r>
@@ -4324,12 +4264,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>Cookies</t>
     </r>
     <r>
@@ -4521,12 +4455,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>JSP</t>
     </r>
     <r>
@@ -5937,12 +5865,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>JavaBeans</t>
     </r>
     <r>
@@ -6205,12 +6127,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>核心标签库</t>
     </r>
     <r>
@@ -6347,12 +6263,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -6696,12 +6606,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>过滤器用途：</t>
     </r>
     <r>
@@ -6877,12 +6781,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>Ajax</t>
     </r>
     <r>
@@ -7038,12 +6936,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>DriverManager</t>
     </r>
     <r>
@@ -7482,12 +7374,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>遵守一定标准的服务器或客户端就称之为</t>
     </r>
     <r>
@@ -7622,12 +7508,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>Servlet</t>
     </r>
     <r>
@@ -7692,7 +7572,25 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>采用web.xml文件注册，如：</t>
+      <t>采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>web.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件注册，如：</t>
     </r>
     <r>
       <rPr>
@@ -7890,7 +7788,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>可以采用标注，如：</t>
+      <t>可以采用注解，如：</t>
     </r>
     <r>
       <rPr>
@@ -7995,12 +7893,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>属性线程安全：</t>
     </r>
     <r>
@@ -8112,8 +8004,26 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>属性范围监听器：
-    监听器用来监听</t>
+      <t>属性范围监听器：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>监听器用来监听</t>
     </r>
     <r>
       <rPr>
@@ -8131,16 +8041,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>对象生命周期、内部属性绑定变化.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t>对象生命周期、内部属性绑定变化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.
     </t>
     </r>
     <r>
@@ -8200,12 +8110,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>Servlet</t>
     </r>
     <r>
@@ -8677,12 +8581,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>格式为：</t>
     </r>
     <r>
@@ -9137,12 +9035,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>核心标签库</t>
     </r>
     <r>
@@ -9378,12 +9270,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>若将第</t>
     </r>
     <r>
@@ -9542,12 +9428,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>过滤器</t>
     </r>
     <r>
@@ -10009,119 +9889,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>将一直向后调用下一个过滤器，直到最终调用所访问的资源.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>FilterConfig</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>容器初始化过滤器时，将</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>FilterConfig</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>传递给过滤器，可以通过该对象获取过滤器配置的初始化参数和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ServletContext Web</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应用环境对象，然后获取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Web</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应用的相关信息</t>
+      <t>将一直向后调用下一个过滤器，直到最终调用所访问的资源</t>
     </r>
     <r>
       <rPr>
@@ -10135,6 +9903,118 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FilterConfig</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>容器初始化过滤器时，将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FilterConfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传递给过滤器，可以通过该对象获取过滤器配置的初始化参数和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ServletContext Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应用环境对象，然后获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应用的相关信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -10430,13 +10310,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>创建</t>
     </r>
     <r>
@@ -10563,12 +10436,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>Connection</t>
     </r>
     <r>
@@ -10953,12 +10820,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>get</t>
     </r>
     <r>
@@ -11591,12 +11452,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>监听器接口：</t>
     </r>
     <r>
@@ -11964,12 +11819,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>protected void doGet(){
   request.setCharacterEncoding("UTF-8");
   response.setCharacterEncoding("UTF-8");
@@ -12114,12 +11963,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>JSP</t>
     </r>
     <r>
@@ -12891,12 +12734,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>EL</t>
     </r>
     <r>
@@ -13403,12 +13240,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>核心标签库</t>
     </r>
     <r>
@@ -13669,12 +13500,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>部署描述文件内容：</t>
     </r>
     <r>
@@ -14258,13 +14083,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>初始化请求参数</t>
     </r>
     <r>
@@ -14471,12 +14289,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>Statement</t>
     </r>
     <r>
@@ -15113,12 +14925,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>从表单获取参数：</t>
     </r>
     <r>
@@ -15457,12 +15263,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>//</t>
     </r>
     <r>
@@ -15553,12 +15353,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Session:
   </t>
     </r>
@@ -15641,7 +15435,25 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>请求-响应</t>
+      <t>请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>响应</t>
     </r>
     <r>
       <rPr>
@@ -15714,7 +15526,25 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>请求-响应</t>
+      <t>请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>响应</t>
     </r>
     <r>
       <rPr>
@@ -16154,12 +15984,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>Tomcat</t>
     </r>
     <r>
@@ -16347,12 +16171,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>EL</t>
     </r>
     <r>
@@ -16628,12 +16446,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>核心标签库</t>
     </r>
     <r>
@@ -16888,12 +16700,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>配置</t>
     </r>
     <r>
@@ -17221,12 +17027,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>过滤器编程步骤：</t>
     </r>
     <r>
@@ -17445,13 +17245,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>发送请求：调用</t>
     </r>
     <r>
@@ -19500,12 +19293,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>常用</t>
     </r>
     <r>
@@ -19918,13 +19705,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>HttpSession</t>
     </r>
     <r>
@@ -20422,12 +20202,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>禁止小脚本：</t>
     </r>
     <r>
@@ -20681,12 +20455,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>配置欢迎界面：</t>
     </r>
     <r>
@@ -20778,12 +20546,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>过滤器配置：</t>
     </r>
     <r>
@@ -21456,13 +21218,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>捕获请求状态：</t>
     </r>
     <r>
@@ -22734,12 +22489,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>发送响应体：</t>
     </r>
     <r>
@@ -22836,12 +22585,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>监听器接口：</t>
     </r>
     <r>
@@ -22969,12 +22712,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>EL</t>
     </r>
     <r>
@@ -23062,12 +22799,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>配置错误页面：</t>
     </r>
     <r>
@@ -23261,12 +22992,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>&lt;web-app&gt;
   &lt;filter&gt;
     &lt;description&gt;</t>
@@ -23591,13 +23316,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>判断请求结果：</t>
     </r>
     <r>
@@ -23759,12 +23477,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>重定向和转发：</t>
     </r>
     <r>
@@ -23976,8 +23688,8 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">    RequestDispatcher view = request.getRequestDispatcher(String url);
-    view.forward(request, response);</t>
+      <t xml:space="preserve">    RequestDispatcher dispatcher = request.getRequestDispatcher(String url);
+    dispatcher.forward(request, response);</t>
     </r>
     <r>
       <rPr>
@@ -23996,6 +23708,43 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>重定向是基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，转发基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">RequestDispatcher.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>重定向会改变浏览器地址栏中的</t>
     </r>
     <r>
@@ -24015,26 +23764,10 @@
         <charset val="134"/>
       </rPr>
       <t>，转发不会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>客户端禁用</t>
     </r>
     <r>
@@ -24997,12 +24730,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>配置初始化参数：</t>
     </r>
     <r>
@@ -25285,12 +25012,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>过滤器的生命周期：</t>
     </r>
     <r>
@@ -25426,12 +25147,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>获取响应文本：</t>
     </r>
     <r>
@@ -25784,12 +25499,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>Servlet</t>
     </r>
     <r>
@@ -25832,12 +25541,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>//FirstServlet.java
 //</t>
     </r>
@@ -25999,12 +25702,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>典型的过滤器：</t>
     </r>
     <r>
@@ -26124,12 +25821,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>数据库连接池：</t>
     </r>
     <r>
@@ -26427,12 +26118,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>//getSession.java
 //</t>
     </r>
@@ -26762,12 +26447,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>分页：分页是指将数据库中行数很多的数据逐页显示，并实现前后翻页的功能</t>
     </r>
     <r>
@@ -26988,13 +26667,25 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果需要重定向到另外一个URL,并且需要在浏览器禁止</t>
+      <t>如果需要重定向到另外一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>URL,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并且需要在浏览器禁止</t>
     </r>
     <r>
       <rPr>
@@ -27046,12 +26737,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>二进制大对象：</t>
     </r>
     <r>
@@ -27386,10 +27071,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -27408,13 +27093,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -27425,33 +27104,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -27462,27 +27119,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -27531,6 +27180,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -27538,9 +27195,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -27569,6 +27233,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -27577,8 +27249,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -27614,6 +27292,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -27661,12 +27346,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -27686,6 +27365,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27733,6 +27418,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -27746,6 +27437,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27775,6 +27472,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -27793,25 +27496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27833,12 +27524,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -27846,15 +27531,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -27869,15 +27545,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27908,6 +27575,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27946,6 +27622,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -27954,10 +27639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -27966,137 +27651,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -28113,12 +27798,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -28595,8 +28274,8 @@
   <sheetPr/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L9" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -28690,7 +28369,7 @@
       <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -28704,10 +28383,10 @@
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -28745,7 +28424,7 @@
       <c r="B4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -28761,10 +28440,10 @@
       <c r="I4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="5" t="s">
         <v>46</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -28775,7 +28454,7 @@
       <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -28790,11 +28469,11 @@
       <c r="G5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>55</v>
       </c>
       <c r="M5" s="3" t="s">
@@ -28820,13 +28499,13 @@
       <c r="G6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>65</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -28834,22 +28513,22 @@
       </c>
     </row>
     <row r="7" ht="409" customHeight="1" spans="2:13">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>68</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>70</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>72</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -28857,10 +28536,10 @@
       </c>
     </row>
     <row r="8" ht="314" customHeight="1" spans="2:13">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -28872,22 +28551,22 @@
       <c r="K8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>79</v>
       </c>
       <c r="M8" s="3"/>
     </row>
     <row r="9" ht="409" customHeight="1" spans="2:13">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="3" t="s">
         <v>83</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -28920,7 +28599,7 @@
       </c>
     </row>
     <row r="12" ht="127" customHeight="1" spans="4:13">
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="3" t="s">
